--- a/data/raw/May_2018.xlsx
+++ b/data/raw/May_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Project\FCSC\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Project\FSCS_Project\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F49E63-F6E8-4AC7-8D86-3B493B32B1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABF4C38-8458-4274-8EF0-4F700A6CA04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="1140" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23520" yWindow="840" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -338,19 +338,18 @@
   <dxfs count="12">
     <dxf>
       <font>
-        <b/>
         <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
         </patternFill>
       </fill>
       <border>
-        <top style="double">
-          <color rgb="FF000000"/>
-        </top>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -359,14 +358,14 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
         </patternFill>
       </fill>
       <border>
-        <top style="thin">
+        <right style="thin">
           <color rgb="FFFFFFFF"/>
-        </top>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -375,46 +374,14 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
         </patternFill>
       </fill>
       <border>
-        <top style="thin">
+        <right style="thin">
           <color rgb="FFFFFFFF"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-          <bgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -471,14 +438,14 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
       <border>
-        <right style="thin">
+        <top style="thin">
           <color rgb="FFFFFFFF"/>
-        </right>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -487,14 +454,14 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
       <border>
-        <right style="thin">
+        <top style="thin">
           <color rgb="FFFFFFFF"/>
-        </right>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -503,14 +470,47 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
       <border>
-        <right style="thin">
+        <top style="thin">
           <color rgb="FFFFFFFF"/>
-        </right>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="double">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -528,17 +528,17 @@
   <tableStyles count="1">
     <tableStyle name="Google Sheets Pivot Table Style" table="0" count="12" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="totalRow" dxfId="0"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="3"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="2"/>
-      <tableStyleElement type="thirdSubtotalRow" dxfId="1"/>
-      <tableStyleElement type="firstColumnSubheading" dxfId="7"/>
-      <tableStyleElement type="secondColumnSubheading" dxfId="6"/>
-      <tableStyleElement type="thirdColumnSubheading" dxfId="5"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="thirdRowSubheading" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="8"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="7"/>
+      <tableStyleElement type="thirdSubtotalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumnSubheading" dxfId="5"/>
+      <tableStyleElement type="secondColumnSubheading" dxfId="4"/>
+      <tableStyleElement type="thirdColumnSubheading" dxfId="3"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="2"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="1"/>
+      <tableStyleElement type="thirdRowSubheading" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Justin" refreshedDate="44802.514567245373" refreshedVersion="8" recordCount="199" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Justin" refreshedDate="44802.727227430558" refreshedVersion="8" recordCount="199" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E200" sheet="Form Responses 1"/>
   </cacheSource>
@@ -5185,6 +5185,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
@@ -5523,7 +5526,7 @@
     <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43243.4399340508)</f>
-        <v>43243.439934050897</v>
+        <v>43243.439934050803</v>
       </c>
       <c r="B24" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"G01")</f>
@@ -5579,7 +5582,7 @@
     <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43247.4384485878)</f>
-        <v>43247.438448587898</v>
+        <v>43247.438448587804</v>
       </c>
       <c r="B28" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"I01")</f>
@@ -5925,7 +5928,7 @@
         <v>Peanut Butter Breath</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
